--- a/spliced/falling/2023-03-25_18-04-08/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-08/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.523949909210205</v>
+        <v>-3.555192089080811</v>
       </c>
       <c r="D2" t="n">
-        <v>4.786228704452514</v>
+        <v>4.907798504829406</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.791911107301711</v>
+        <v>-2.923101136088372</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0019853119738399</v>
+        <v>-0.0018325957935303</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0355829000473022</v>
+        <v>-0.0296269636601209</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0200058370828628</v>
+        <v>-0.0087048299610614</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.734984159469604</v>
+        <v>-3.523949909210205</v>
       </c>
       <c r="D3" t="n">
-        <v>4.268091917037964</v>
+        <v>4.786228704452514</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5654808729887018</v>
+        <v>-1.791911107301711</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0106901414692401</v>
+        <v>0.0019853119738399</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08765916526317589</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0525344125926494</v>
+        <v>0.0200058370828628</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-5.463105487823487</v>
+        <v>-4.734984159469604</v>
       </c>
       <c r="D4" t="n">
-        <v>3.789239883422852</v>
+        <v>4.268091917037964</v>
       </c>
       <c r="E4" t="n">
-        <v>0.125382423400879</v>
+        <v>-0.5654808729887018</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0532979927957057</v>
+        <v>0.0106901414692401</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3320052623748779</v>
+        <v>0.08765916526317589</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1557706445455551</v>
+        <v>0.0525344125926494</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-6.153488552570344</v>
+        <v>-5.463105487823487</v>
       </c>
       <c r="D5" t="n">
-        <v>2.863918662071227</v>
+        <v>3.789239883422852</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2511623546481139</v>
+        <v>0.125382423400879</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1586722433567047</v>
+        <v>-0.0532979927957057</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3882048726081848</v>
+        <v>0.3320052623748779</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0940732508897781</v>
+        <v>0.1557706445455551</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-7.365730333328246</v>
+        <v>-6.153488552570344</v>
       </c>
       <c r="D6" t="n">
-        <v>1.174339866638185</v>
+        <v>2.863918662071227</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3271868914365764</v>
+        <v>-0.2511623546481139</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2698497176170349</v>
+        <v>-0.1586722433567047</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6501133441925049</v>
+        <v>0.3882048726081848</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.4689917862415313</v>
+        <v>-0.0940732508897781</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-7.554701018333435</v>
+        <v>-7.365730333328246</v>
       </c>
       <c r="D7" t="n">
-        <v>1.320136770606041</v>
+        <v>1.174339866638185</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9918349981307982</v>
+        <v>0.3271868914365764</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0048869219608604</v>
+        <v>-0.2698497176170349</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8135197758674622</v>
+        <v>0.6501133441925049</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.29075825214386</v>
+        <v>-0.4689917862415313</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.541906356811527</v>
+        <v>-7.554701018333435</v>
       </c>
       <c r="D8" t="n">
-        <v>3.541345179080956</v>
+        <v>1.320136770606041</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3953665494918761</v>
+        <v>0.9918349981307982</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8275696635246277</v>
+        <v>0.0048869219608604</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.131614208221436</v>
+        <v>0.8135197758674622</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.630385637283325</v>
+        <v>-1.29075825214386</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41.03047697544085</v>
+        <v>-6.541906356811527</v>
       </c>
       <c r="D9" t="n">
-        <v>6.894529008865351</v>
+        <v>3.541345179080956</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.942315888404829</v>
+        <v>-0.3953665494918761</v>
       </c>
       <c r="F9" t="n">
-        <v>1.503492116928101</v>
+        <v>0.8275696635246277</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.445571899414063</v>
+        <v>-2.131614208221436</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.242486238479614</v>
+        <v>-2.630385637283325</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>64.96824674606313</v>
+        <v>41.03047697544085</v>
       </c>
       <c r="D10" t="n">
-        <v>6.919658172130577</v>
+        <v>6.894529008865351</v>
       </c>
       <c r="E10" t="n">
-        <v>-9.210757869482023</v>
+        <v>-6.942315888404829</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.950034618377685</v>
+        <v>1.503492116928101</v>
       </c>
       <c r="G10" t="n">
-        <v>3.770718336105346</v>
+        <v>-4.445571899414063</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2194533348083496</v>
+        <v>-2.242486238479614</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-6.831269806623445</v>
+        <v>64.96824674606313</v>
       </c>
       <c r="D11" t="n">
-        <v>3.269432669878014</v>
+        <v>6.919658172130577</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1760272979736253</v>
+        <v>-9.210757869482023</v>
       </c>
       <c r="F11" t="n">
-        <v>6.251442432403564</v>
+        <v>-1.950034618377685</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.222022294998169</v>
+        <v>3.770718336105346</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.614794969558716</v>
+        <v>0.2194533348083496</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.175523471832268</v>
+        <v>-6.831269806623445</v>
       </c>
       <c r="D12" t="n">
-        <v>5.449279594421388</v>
+        <v>3.269432669878014</v>
       </c>
       <c r="E12" t="n">
-        <v>1.586600971221922</v>
+        <v>-0.1760272979736253</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8747590184211731</v>
+        <v>6.251442432403564</v>
       </c>
       <c r="G12" t="n">
-        <v>2.045024156570435</v>
+        <v>-2.222022294998169</v>
       </c>
       <c r="H12" t="n">
-        <v>1.580461144447327</v>
+        <v>-3.614794969558716</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.27016156911849</v>
+        <v>-2.175523471832268</v>
       </c>
       <c r="D13" t="n">
-        <v>5.673981070518497</v>
+        <v>5.449279594421388</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4227319359779442</v>
+        <v>1.586600971221922</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0520762614905834</v>
+        <v>0.8747590184211731</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.5412266254425049</v>
+        <v>2.045024156570435</v>
       </c>
       <c r="H13" t="n">
-        <v>0.422871470451355</v>
+        <v>1.580461144447327</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.514346599578862</v>
+        <v>2.27016156911849</v>
       </c>
       <c r="D14" t="n">
-        <v>5.118150138854979</v>
+        <v>5.673981070518497</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.915704894065858</v>
+        <v>0.4227319359779442</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2570215463638305</v>
+        <v>-0.0520762614905834</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.184691429138184</v>
+        <v>-0.5412266254425049</v>
       </c>
       <c r="H14" t="n">
-        <v>2.630538463592529</v>
+        <v>0.422871470451355</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-6.036725759506252</v>
+        <v>4.514346599578862</v>
       </c>
       <c r="D15" t="n">
-        <v>9.008556652069101</v>
+        <v>5.118150138854979</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.9792453408241246</v>
+        <v>-1.915704894065858</v>
       </c>
       <c r="F15" t="n">
-        <v>2.87503719329834</v>
+        <v>-0.2570215463638305</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.23394775390625</v>
+        <v>-7.184691429138184</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1574505120515823</v>
+        <v>2.630538463592529</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.178059291839593</v>
+        <v>-6.036725759506252</v>
       </c>
       <c r="D16" t="n">
-        <v>4.555799674987787</v>
+        <v>9.008556652069101</v>
       </c>
       <c r="E16" t="n">
-        <v>3.518247509002693</v>
+        <v>-0.9792453408241246</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.157145082950592</v>
+        <v>2.87503719329834</v>
       </c>
       <c r="G16" t="n">
-        <v>1.678810358047485</v>
+        <v>-1.23394775390625</v>
       </c>
       <c r="H16" t="n">
-        <v>1.309847831726074</v>
+        <v>-0.1574505120515823</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.642422831058502</v>
+        <v>-1.178059291839593</v>
       </c>
       <c r="D17" t="n">
-        <v>6.837077736854553</v>
+        <v>4.555799674987787</v>
       </c>
       <c r="E17" t="n">
-        <v>3.844039088487625</v>
+        <v>3.518247509002693</v>
       </c>
       <c r="F17" t="n">
-        <v>0.982424020767212</v>
+        <v>-0.157145082950592</v>
       </c>
       <c r="G17" t="n">
-        <v>1.2322678565979</v>
+        <v>1.678810358047485</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.3689626157283783</v>
+        <v>1.309847831726074</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4585734605789122</v>
+        <v>-1.642422831058502</v>
       </c>
       <c r="D18" t="n">
-        <v>6.029543757438664</v>
+        <v>6.837077736854553</v>
       </c>
       <c r="E18" t="n">
-        <v>3.976011931896209</v>
+        <v>3.844039088487625</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0326812900602817</v>
+        <v>0.982424020767212</v>
       </c>
       <c r="G18" t="n">
-        <v>0.007177666760981</v>
+        <v>1.2322678565979</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1241583600640297</v>
+        <v>-0.3689626157283783</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8665444850921629</v>
+        <v>0.4585734605789122</v>
       </c>
       <c r="D19" t="n">
-        <v>5.183062970638275</v>
+        <v>6.029543757438664</v>
       </c>
       <c r="E19" t="n">
-        <v>4.418135178089142</v>
+        <v>3.976011931896209</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.00167987938039</v>
+        <v>0.0326812900602817</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0308486949652433</v>
+        <v>0.007177666760981</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0305432621389627</v>
+        <v>-0.1241583600640297</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2307996749877924</v>
+        <v>0.8665444850921629</v>
       </c>
       <c r="D20" t="n">
-        <v>4.777379417419433</v>
+        <v>5.183062970638275</v>
       </c>
       <c r="E20" t="n">
-        <v>4.424502086639404</v>
+        <v>4.418135178089142</v>
       </c>
       <c r="F20" t="n">
-        <v>0.012980886735022</v>
+        <v>-0.00167987938039</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.06704246252775189</v>
+        <v>0.0308486949652433</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0529925599694252</v>
+        <v>0.0305432621389627</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.31689715385437</v>
+        <v>0.2307996749877924</v>
       </c>
       <c r="D21" t="n">
-        <v>4.877218794822693</v>
+        <v>4.777379417419433</v>
       </c>
       <c r="E21" t="n">
-        <v>4.225887775421143</v>
+        <v>4.424502086639404</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0004581489483825</v>
+        <v>0.012980886735022</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0694859251379966</v>
+        <v>-0.06704246252775189</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.005192354787141</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.4965919017791747</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.156597185134888</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4.267510080337524</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.015118914656341</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0235183127224445</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.047036625444889</v>
+        <v>-0.0529925599694252</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-04-08/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-08/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.555192089080811</v>
+        <v>-3.789114356040955</v>
       </c>
       <c r="D2" t="n">
-        <v>4.907798504829406</v>
+        <v>5.144325375556946</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.923101136088372</v>
+        <v>-3.264913499355316</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0018325957935303</v>
+        <v>0.0216857157647609</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0296269636601209</v>
+        <v>-0.0339030213654041</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0087048299610614</v>
+        <v>0.0201585534960031</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.523949909210205</v>
+        <v>-3.717108857631684</v>
       </c>
       <c r="D3" t="n">
-        <v>4.786228704452514</v>
+        <v>5.147888684272766</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.791911107301711</v>
+        <v>-3.339606630802154</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0019853119738399</v>
+        <v>-0.0120645882561802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0355829000473022</v>
+        <v>-0.0719293802976608</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0200058370828628</v>
+        <v>0.0242818929255008</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.734984159469604</v>
+        <v>-3.921339607238769</v>
       </c>
       <c r="D4" t="n">
-        <v>4.268091917037964</v>
+        <v>5.102599048614501</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5654808729887018</v>
+        <v>-3.249480080604553</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0106901414692401</v>
+        <v>0.0125227374956011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08765916526317589</v>
+        <v>-0.0106901414692401</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0525344125926494</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-5.463105487823487</v>
+        <v>-3.555192089080811</v>
       </c>
       <c r="D5" t="n">
-        <v>3.789239883422852</v>
+        <v>4.907798504829406</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125382423400879</v>
+        <v>-2.923101136088372</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0532979927957057</v>
+        <v>-0.0018325957935303</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3320052623748779</v>
+        <v>-0.0296269636601209</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1557706445455551</v>
+        <v>-0.0087048299610614</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-6.153488552570344</v>
+        <v>-3.523949909210205</v>
       </c>
       <c r="D6" t="n">
-        <v>2.863918662071227</v>
+        <v>4.786228704452514</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2511623546481139</v>
+        <v>-1.791911107301711</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1586722433567047</v>
+        <v>0.0019853119738399</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3882048726081848</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0940732508897781</v>
+        <v>0.0200058370828628</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-7.365730333328246</v>
+        <v>-4.734984159469604</v>
       </c>
       <c r="D7" t="n">
-        <v>1.174339866638185</v>
+        <v>4.268091917037964</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3271868914365764</v>
+        <v>-0.5654808729887018</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2698497176170349</v>
+        <v>0.0106901414692401</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6501133441925049</v>
+        <v>0.08765916526317589</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.4689917862415313</v>
+        <v>0.0525344125926494</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-7.554701018333435</v>
+        <v>-5.463105487823487</v>
       </c>
       <c r="D8" t="n">
-        <v>1.320136770606041</v>
+        <v>3.789239883422852</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9918349981307982</v>
+        <v>0.125382423400879</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0048869219608604</v>
+        <v>-0.0532979927957057</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8135197758674622</v>
+        <v>0.3320052623748779</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.29075825214386</v>
+        <v>0.1557706445455551</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.541906356811527</v>
+        <v>-6.153488552570344</v>
       </c>
       <c r="D9" t="n">
-        <v>3.541345179080956</v>
+        <v>2.863918662071227</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3953665494918761</v>
+        <v>-0.2511623546481139</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8275696635246277</v>
+        <v>-0.1586722433567047</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.131614208221436</v>
+        <v>0.3882048726081848</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.630385637283325</v>
+        <v>-0.0940732508897781</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>41.03047697544085</v>
+        <v>-7.365730333328246</v>
       </c>
       <c r="D10" t="n">
-        <v>6.894529008865351</v>
+        <v>1.174339866638185</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.942315888404829</v>
+        <v>0.3271868914365764</v>
       </c>
       <c r="F10" t="n">
-        <v>1.503492116928101</v>
+        <v>-0.2698497176170349</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.445571899414063</v>
+        <v>0.6501133441925049</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.242486238479614</v>
+        <v>-0.4689917862415313</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>64.96824674606313</v>
+        <v>-7.554701018333435</v>
       </c>
       <c r="D11" t="n">
-        <v>6.919658172130577</v>
+        <v>1.320136770606041</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.210757869482023</v>
+        <v>0.9918349981307982</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.950034618377685</v>
+        <v>0.0048869219608604</v>
       </c>
       <c r="G11" t="n">
-        <v>3.770718336105346</v>
+        <v>0.8135197758674622</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2194533348083496</v>
+        <v>-1.29075825214386</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-6.831269806623445</v>
+        <v>-6.541906356811527</v>
       </c>
       <c r="D12" t="n">
-        <v>3.269432669878014</v>
+        <v>3.541345179080956</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1760272979736253</v>
+        <v>-0.3953665494918761</v>
       </c>
       <c r="F12" t="n">
-        <v>6.251442432403564</v>
+        <v>0.8275696635246277</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.222022294998169</v>
+        <v>-2.131614208221436</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.614794969558716</v>
+        <v>-2.630385637283325</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.175523471832268</v>
+        <v>41.03047697544085</v>
       </c>
       <c r="D13" t="n">
-        <v>5.449279594421388</v>
+        <v>6.894529008865351</v>
       </c>
       <c r="E13" t="n">
-        <v>1.586600971221922</v>
+        <v>-6.942315888404829</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8747590184211731</v>
+        <v>1.503492116928101</v>
       </c>
       <c r="G13" t="n">
-        <v>2.045024156570435</v>
+        <v>-4.445571899414063</v>
       </c>
       <c r="H13" t="n">
-        <v>1.580461144447327</v>
+        <v>-2.242486238479614</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.27016156911849</v>
+        <v>64.96824674606313</v>
       </c>
       <c r="D14" t="n">
-        <v>5.673981070518497</v>
+        <v>6.919658172130577</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4227319359779442</v>
+        <v>-9.210757869482023</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0520762614905834</v>
+        <v>-1.950034618377685</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.5412266254425049</v>
+        <v>3.770718336105346</v>
       </c>
       <c r="H14" t="n">
-        <v>0.422871470451355</v>
+        <v>0.2194533348083496</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.514346599578862</v>
+        <v>-6.831269806623445</v>
       </c>
       <c r="D15" t="n">
-        <v>5.118150138854979</v>
+        <v>3.269432669878014</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.915704894065858</v>
+        <v>-0.1760272979736253</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2570215463638305</v>
+        <v>6.251442432403564</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.184691429138184</v>
+        <v>-2.222022294998169</v>
       </c>
       <c r="H15" t="n">
-        <v>2.630538463592529</v>
+        <v>-3.614794969558716</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-6.036725759506252</v>
+        <v>-2.175523471832268</v>
       </c>
       <c r="D16" t="n">
-        <v>9.008556652069101</v>
+        <v>5.449279594421388</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.9792453408241246</v>
+        <v>1.586600971221922</v>
       </c>
       <c r="F16" t="n">
-        <v>2.87503719329834</v>
+        <v>0.8747590184211731</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.23394775390625</v>
+        <v>2.045024156570435</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1574505120515823</v>
+        <v>1.580461144447327</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.178059291839593</v>
+        <v>2.27016156911849</v>
       </c>
       <c r="D17" t="n">
-        <v>4.555799674987787</v>
+        <v>5.673981070518497</v>
       </c>
       <c r="E17" t="n">
-        <v>3.518247509002693</v>
+        <v>0.4227319359779442</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.157145082950592</v>
+        <v>-0.0520762614905834</v>
       </c>
       <c r="G17" t="n">
-        <v>1.678810358047485</v>
+        <v>-0.5412266254425049</v>
       </c>
       <c r="H17" t="n">
-        <v>1.309847831726074</v>
+        <v>0.422871470451355</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.642422831058502</v>
+        <v>4.514346599578862</v>
       </c>
       <c r="D18" t="n">
-        <v>6.837077736854553</v>
+        <v>5.118150138854979</v>
       </c>
       <c r="E18" t="n">
-        <v>3.844039088487625</v>
+        <v>-1.915704894065858</v>
       </c>
       <c r="F18" t="n">
-        <v>0.982424020767212</v>
+        <v>-0.2570215463638305</v>
       </c>
       <c r="G18" t="n">
-        <v>1.2322678565979</v>
+        <v>-7.184691429138184</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3689626157283783</v>
+        <v>2.630538463592529</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.4585734605789122</v>
+        <v>-6.036725759506252</v>
       </c>
       <c r="D19" t="n">
-        <v>6.029543757438664</v>
+        <v>9.008556652069101</v>
       </c>
       <c r="E19" t="n">
-        <v>3.976011931896209</v>
+        <v>-0.9792453408241246</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0326812900602817</v>
+        <v>2.87503719329834</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007177666760981</v>
+        <v>-1.23394775390625</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1241583600640297</v>
+        <v>-0.1574505120515823</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8665444850921629</v>
+        <v>-1.178059291839593</v>
       </c>
       <c r="D20" t="n">
-        <v>5.183062970638275</v>
+        <v>4.555799674987787</v>
       </c>
       <c r="E20" t="n">
-        <v>4.418135178089142</v>
+        <v>3.518247509002693</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.00167987938039</v>
+        <v>-0.157145082950592</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0308486949652433</v>
+        <v>1.678810358047485</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0305432621389627</v>
+        <v>1.309847831726074</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-1.642422831058502</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.837077736854553</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.844039088487625</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.982424020767212</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.2322678565979</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.3689626157283783</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4585734605789122</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.029543757438664</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.976011931896209</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0326812900602817</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.007177666760981</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1241583600640297</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8665444850921629</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.183062970638275</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.418135178089142</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.00167987938039</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0308486949652433</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0305432621389627</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>0.2307996749877924</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>4.777379417419433</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E24" t="n">
         <v>4.424502086639404</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F24" t="n">
         <v>0.012980886735022</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>-0.06704246252775189</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>-0.0529925599694252</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.31689715385437</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.877218794822693</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.225887775421143</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0004581489483825</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.0694859251379966</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.005192354787141</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.4965919017791747</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.156597185134888</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.267510080337524</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.015118914656341</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.0235183127224445</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.047036625444889</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5277259349822996</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.028044939041139</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.214276224374771</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0102319931611418</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0080939643085002</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.0006108652451075</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.6842149734497071</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.842281723022461</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.947901606559754</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0326812900602817</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0154243474826216</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0415388382971286</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.5955237627029424</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.176781976222992</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.094217467308044</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0032070425804704</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0175623763352632</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0198531206697225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.1085210800170896</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.183276605606079</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.1697988986969</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0097738439217209</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0273362193256616</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.0233655963093042</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2790900230407717</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.053058326244355</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.114621889591216</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0073303831741213</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0030543261673301</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0368046313524246</v>
       </c>
     </row>
   </sheetData>
